--- a/data/trans_dic/P54_A_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -637,27 +638,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>69,06%</t>
+          <t>68,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>75,86%</t>
+          <t>74,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,84%</t>
+          <t>81,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +668,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>71,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>77,86%</t>
+          <t>77,69%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 18,29</t>
+          <t>11,99; 18,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>64,02; 73,05</t>
+          <t>64,18; 72,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>69,59; 76,82</t>
+          <t>69,45; 77,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 19,43</t>
+          <t>13,84; 19,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>71,99; 78,91</t>
+          <t>71,21; 78,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,08; 84,46</t>
+          <t>78,9; 84,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 18,01</t>
+          <t>13,73; 18,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,65; 75,18</t>
+          <t>69,18; 74,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>75,6; 80,09</t>
+          <t>75,34; 79,91</t>
         </is>
       </c>
     </row>
@@ -747,27 +748,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,29%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>83,5%</t>
+          <t>83,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>87,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -777,12 +778,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>77,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>84,11%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,8; 18,7</t>
+          <t>11,4; 18,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,82; 77,6</t>
+          <t>67,73; 76,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,01; 84,46</t>
+          <t>76,87; 84,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,31; 26,04</t>
+          <t>18,21; 25,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,72; 86,46</t>
+          <t>80,13; 86,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,44; 89,77</t>
+          <t>84,35; 89,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,71</t>
+          <t>15,57; 20,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,4; 80,89</t>
+          <t>75,35; 80,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,61; 86,23</t>
+          <t>81,48; 86,19</t>
         </is>
       </c>
     </row>
@@ -852,17 +853,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,27 +873,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>92,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,46%</t>
+          <t>77,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>87,29%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,01; 31,44</t>
+          <t>11,14; 31,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,91; 82,61</t>
+          <t>64,12; 81,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>75,51; 87,97</t>
+          <t>76,0; 88,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,23; 25,44</t>
+          <t>13,28; 25,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>75,06; 88,98</t>
+          <t>74,15; 87,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,6; 95,55</t>
+          <t>87,18; 95,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,02; 25,45</t>
+          <t>13,71; 26,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,7; 83,23</t>
+          <t>72,18; 82,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>82,49; 90,37</t>
+          <t>83,29; 90,61</t>
         </is>
       </c>
     </row>
@@ -967,12 +968,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>71,42%</t>
+          <t>70,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>77,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -982,12 +983,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>79,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -997,12 +998,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>75,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>81,41%</t>
+          <t>81,32%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,96; 17,72</t>
+          <t>13,01; 17,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,22; 74,36</t>
+          <t>67,63; 73,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,04; 80,04</t>
+          <t>75,1; 79,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,89; 21,09</t>
+          <t>16,67; 20,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,06; 81,7</t>
+          <t>76,61; 81,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,24; 86,75</t>
+          <t>83,24; 86,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 18,6</t>
+          <t>15,31; 18,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>73,57; 77,44</t>
+          <t>73,25; 76,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,85; 82,92</t>
+          <t>79,73; 82,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>672.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>898.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1157.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>234270</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1118025</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1188660</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>273685</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1331365</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1467375</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>507955</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2449390</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2656035</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>190448; 292621</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1044387; 1184189</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1129765; 1255818</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>230323; 329039</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1264373; 1385063</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1413674; 1510209</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>446500; 590170</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2354238; 2539265</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2575676; 2731849</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>548.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>744.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>962.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>192556</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>983632</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1094265</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>278930</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1141059</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1176577</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>471487</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2124690</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2270842</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>149789; 242307</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>919756; 1038846</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1038445; 1139371</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>233982; 331789</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1096875; 1181167</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1137783; 1210274</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>404632; 537326</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2054592; 2201641</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2199740; 2326880</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>72509</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>313171</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>342923</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>70227</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>326596</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>367361</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>142736</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>639767</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>710284</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44750; 128499</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>271115; 346124</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>314952; 366761</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>49518; 94473</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>295179; 350096</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>348048; 380950</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>106196; 203673</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>592532; 681262</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>677724; 737315</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>799.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1015.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1041.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1376.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1840.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2391.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>499335</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2414828</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2625848</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>622842</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2799020</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3011313</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1122177</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5213848</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5637161</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>429729; 591729</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2305077; 2513224</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2547549; 2701890</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>553733; 691720</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2714067; 2871148</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2946758; 3069963</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1014636; 1225502</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5091422; 5329552</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5527058; 5730772</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>